--- a/result-senticircle-v2.xlsx
+++ b/result-senticircle-v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>FN</t>
   </si>
   <si>
-    <t>Nikon coolpix 4300</t>
+    <t>Apex AD2600 Progressive-scan DVD player</t>
+  </si>
+  <si>
+    <t>Canon G3</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,16 +423,36 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>151</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
